--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 10:06:34</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:17:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234702.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:17:52</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:47:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234702.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235602.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:47:04</t>
+    <t>Informação extraída do SIGBM: 02/01/2023 - 11:56:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235602.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 02/01/2023 - 11:56:53</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:13:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:13:17</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:29:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:29:00</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:38:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:38:13</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:47:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:47:15</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:55:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:55:42</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:11:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:11:22</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:32:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:32:37</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:43:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:43:52</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:52:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:52:25</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:01:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:01:26</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:19:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:19:26</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:30:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:30:09</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:38:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:38:54</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:48:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:48:28</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:57:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:57:11</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:13:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:13:47</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:32:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:32:31</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:44:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:44:44</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:53:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:53:48</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:01:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:01:38</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:19:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:19:44</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:28:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:28:31</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:37:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:37:26</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:46:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:46:28</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:55:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:55:36</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:10:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:10:54</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:32:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:32:22</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:43:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:43:41</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:52:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:52:32</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:01:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:01:59</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:20:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:20:40</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:30:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:30:53</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:40:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:40:24</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:48:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:48:42</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:57:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:57:31</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:14:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:14:32</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:31:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:31:50</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:41:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:41:26</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:50:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:50:17</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:59:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:59:08</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:13:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:13:36</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:24:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:24:38</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:33:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:33:43</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:42:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:42:30</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:51:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:51:12</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:59:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:59:57</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 09:33:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 09:33:50</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 10:02:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:02:14</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 10:27:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:27:19</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 10:38:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233803.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:38:53</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 10:47:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:47:10</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 10:55:35</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -38653,7 +38653,7 @@
         <v>32</v>
       </c>
       <c r="R442" s="0" t="s">
-        <v>146</v>
+        <v>612</v>
       </c>
       <c r="S442" s="0" t="s">
         <v>33</v>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 10:55:35</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:09:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:09:30</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:25:56</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -16243,7 +16243,7 @@
         <v>105</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>46</v>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:25:56</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:34:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:34:49</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:44:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:44:02</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 11:52:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 11:52:56</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:01:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:01:34</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:23:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:23:09</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:33:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:33:57</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:43:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:43:03</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 12:51:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 12:51:43</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:00:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:00:31</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:26:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:26:14</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:45:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:45:47</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 01:54:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 01:54:39</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:04:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:04:55</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:22:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:22:17</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:32:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:32:12</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:40:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:40:49</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:51:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:51:09</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 02:59:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 02:59:55</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:17:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:17:33</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:33:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:33:06</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:44:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:44:50</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 03:53:32</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -43428,7 +43428,7 @@
         <v>46</v>
       </c>
       <c r="Q524" s="0" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="R524" s="0" t="s">
         <v>146</v>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 03:53:32</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:01:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:01:59</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:17:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:17:50</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:26:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:26:43</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:36:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:36:07</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:45:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:45:02</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 04:53:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 04:53:58</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:02:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:02:21</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:24:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:24:25</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:33:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233303.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:33:30</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:42:06</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:50:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:50:34</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 05:59:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 05:59:28</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:16:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:16:00</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:27:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:27:27</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:37:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:37:21</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:46:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:46:33</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 06:55:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230703.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 06:55:07</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:07:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230703.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:07:08</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:26:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232603.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233503.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:26:07</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:35:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233503.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:35:18</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:44:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234403.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:44:02</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 07:52:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 07:52:41</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:01:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232103.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:01:44</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:21:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232103.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:21:31</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:32:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233203.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:32:15</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:40:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234003.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:40:32</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:49:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-03.xlsx
+++ b/sigbm_download_2023-01-03.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234903.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235903.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 03/01/2023 - 08:49:59</t>
+    <t>Informação extraída do SIGBM: 03/01/2023 - 08:59:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
